--- a/Modules/Login/DataFiles/Login.xlsx
+++ b/Modules/Login/DataFiles/Login.xlsx
@@ -10,7 +10,6 @@
     <sheet name="Credentials" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,17 +19,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Key</t>
   </si>
   <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
     <t>StoreUser</t>
   </si>
   <si>
@@ -43,7 +36,19 @@
     <t>AdminUser</t>
   </si>
   <si>
-    <t>sanket.k@yopmail.com</t>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>StoreUserPassword</t>
+  </si>
+  <si>
+    <t>B2BUserPassword</t>
+  </si>
+  <si>
+    <t>AdminUserPassword</t>
+  </si>
+  <si>
+    <t>tony.stark@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -107,12 +112,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Excel Built-in Normal" xfId="2"/>
@@ -388,7 +392,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -396,54 +400,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.5703125" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" customWidth="1"/>
+    <col min="2" max="2" width="38.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
